--- a/6月份用户保险信息汇总登记表.xlsx
+++ b/6月份用户保险信息汇总登记表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
@@ -13,7 +13,7 @@
     <sheet name="100" sheetId="4" r:id="rId4"/>
     <sheet name="300" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -9420,9 +9420,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9447,11 +9444,14 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="6">
     <dxf>
       <font>
         <condense val="0"/>
@@ -9463,438 +9463,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -10249,8 +9817,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A227" sqref="A227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1"/>
@@ -10270,18 +9838,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -17404,7 +16972,7 @@
       </c>
     </row>
     <row r="188" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A188" s="56" t="s">
+      <c r="A188" s="55" t="s">
         <v>1882</v>
       </c>
       <c r="B188" s="7" t="s">
@@ -17437,12 +17005,12 @@
       <c r="K188" s="8" t="s">
         <v>1834</v>
       </c>
-      <c r="L188" s="58" t="s">
+      <c r="L188" s="57" t="s">
         <v>1889</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A189" s="56" t="s">
+      <c r="A189" s="55" t="s">
         <v>1882</v>
       </c>
       <c r="B189" s="7" t="s">
@@ -17480,7 +17048,7 @@
       </c>
     </row>
     <row r="190" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A190" s="56" t="s">
+      <c r="A190" s="55" t="s">
         <v>1882</v>
       </c>
       <c r="B190" s="7" t="s">
@@ -17518,7 +17086,7 @@
       </c>
     </row>
     <row r="191" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A191" s="56" t="s">
+      <c r="A191" s="55" t="s">
         <v>1882</v>
       </c>
       <c r="B191" s="7" t="s">
@@ -17556,7 +17124,7 @@
       </c>
     </row>
     <row r="192" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A192" s="56" t="s">
+      <c r="A192" s="55" t="s">
         <v>1882</v>
       </c>
       <c r="B192" s="7" t="s">
@@ -17594,7 +17162,7 @@
       </c>
     </row>
     <row r="193" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A193" s="56" t="s">
+      <c r="A193" s="55" t="s">
         <v>1882</v>
       </c>
       <c r="B193" s="7" t="s">
@@ -17632,7 +17200,7 @@
       </c>
     </row>
     <row r="194" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A194" s="56" t="s">
+      <c r="A194" s="55" t="s">
         <v>1928</v>
       </c>
       <c r="B194" s="7" t="s">
@@ -17670,7 +17238,7 @@
       </c>
     </row>
     <row r="195" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A195" s="56" t="s">
+      <c r="A195" s="55" t="s">
         <v>1937</v>
       </c>
       <c r="B195" s="7" t="s">
@@ -17708,7 +17276,7 @@
       </c>
     </row>
     <row r="196" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A196" s="56"/>
+      <c r="A196" s="55"/>
       <c r="B196" s="7" t="s">
         <v>1945</v>
       </c>
@@ -17744,7 +17312,7 @@
       </c>
     </row>
     <row r="197" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A197" s="56"/>
+      <c r="A197" s="55"/>
       <c r="B197" s="7" t="s">
         <v>1952</v>
       </c>
@@ -17780,7 +17348,7 @@
       </c>
     </row>
     <row r="198" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A198" s="56"/>
+      <c r="A198" s="55"/>
       <c r="B198" s="7" t="s">
         <v>1958</v>
       </c>
@@ -17816,7 +17384,7 @@
       </c>
     </row>
     <row r="199" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A199" s="56"/>
+      <c r="A199" s="55"/>
       <c r="B199" s="7" t="s">
         <v>1964</v>
       </c>
@@ -17852,7 +17420,7 @@
       </c>
     </row>
     <row r="200" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A200" s="56" t="s">
+      <c r="A200" s="55" t="s">
         <v>1865</v>
       </c>
       <c r="B200" s="7" t="s">
@@ -17890,7 +17458,7 @@
       </c>
     </row>
     <row r="201" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A201" s="56" t="s">
+      <c r="A201" s="55" t="s">
         <v>1882</v>
       </c>
       <c r="B201" s="7" t="s">
@@ -17928,7 +17496,7 @@
       </c>
     </row>
     <row r="202" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A202" s="56"/>
+      <c r="A202" s="55"/>
       <c r="B202" s="7" t="s">
         <v>1982</v>
       </c>
@@ -18444,7 +18012,7 @@
       <c r="H215" s="8">
         <v>10.14</v>
       </c>
-      <c r="I215" s="57">
+      <c r="I215" s="56">
         <v>15927077489</v>
       </c>
       <c r="J215" s="8" t="s">
@@ -18876,7 +18444,9 @@
       </c>
     </row>
     <row r="227" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A227"/>
+      <c r="A227">
+        <v>2017</v>
+      </c>
       <c r="B227"/>
       <c r="C227"/>
       <c r="D227"/>
@@ -19466,7 +19036,7 @@
   <dimension ref="A1:CP79"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A72" sqref="A72:L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -19487,18 +19057,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
@@ -20233,7 +19803,7 @@
       <c r="E21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="58" t="s">
         <v>2271</v>
       </c>
       <c r="G21" s="7" t="s">
@@ -22211,7 +21781,7 @@
         <v>2231</v>
       </c>
       <c r="L64" s="7"/>
-      <c r="M64" s="55"/>
+      <c r="M64" s="54"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="9">
@@ -22262,10 +21832,10 @@
       <c r="D66" s="7" t="s">
         <v>2201</v>
       </c>
-      <c r="E66" s="53" t="s">
+      <c r="E66" s="52" t="s">
         <v>1229</v>
       </c>
-      <c r="F66" s="54" t="s">
+      <c r="F66" s="53" t="s">
         <v>1925</v>
       </c>
       <c r="G66" s="9" t="s">
@@ -22274,10 +21844,10 @@
       <c r="H66" s="9" t="s">
         <v>1926</v>
       </c>
-      <c r="I66" s="52">
+      <c r="I66" s="51">
         <v>15623192203</v>
       </c>
-      <c r="J66" s="52" t="s">
+      <c r="J66" s="51" t="s">
         <v>1927</v>
       </c>
       <c r="K66" s="9" t="s">
@@ -22481,33 +22051,81 @@
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72" s="7"/>
-      <c r="K72"/>
-      <c r="L72"/>
+      <c r="A72" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>2251</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>1467</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>1468</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>1322</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>1323</v>
+      </c>
       <c r="M72"/>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
+      <c r="A73" s="7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>2206</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>2267</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>2214</v>
+      </c>
+      <c r="H73" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>2252</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>2268</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>2269</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>2270</v>
+      </c>
       <c r="M73"/>
     </row>
     <row r="74" spans="1:13">
@@ -22609,7 +22227,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A9" sqref="A9:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -22625,18 +22243,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
@@ -22883,94 +22501,21 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1">
-      <c r="A9" s="7" t="s">
-        <v>911</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>2266</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>2245</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>2251</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>844</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>1465</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>793</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>1466</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>1467</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>1468</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>1322</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>1323</v>
-      </c>
       <c r="M9" s="41" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1">
-      <c r="A10" s="7" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>2238</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>2240</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>2246</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>2206</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>2267</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>2214</v>
-      </c>
-      <c r="H10" s="7">
-        <v>7.6</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>2252</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>2268</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>2269</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>2270</v>
-      </c>
-    </row>
+    <row r="10" spans="1:13" s="9" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2">
-    <cfRule type="duplicateValues" dxfId="29" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="28" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -22993,18 +22538,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
@@ -23078,10 +22623,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="J2">
-    <cfRule type="duplicateValues" dxfId="27" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="26" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23103,18 +22648,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
@@ -23185,10 +22730,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="J2">
-    <cfRule type="duplicateValues" dxfId="25" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="24" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
